--- a/src/test/resource/dataTest/TestData.xlsx
+++ b/src/test/resource/dataTest/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -37,12 +37,16 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -429,13 +433,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
@@ -462,6 +466,9 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
       <c r="G2"/>
     </row>
